--- a/biology/Biologie cellulaire et moléculaire/Lamina_densa/Lamina_densa.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Lamina_densa/Lamina_densa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lamina densa constitue, avec la  lamina lucida, la lame basale de l'épithélium.
 Cette couche de la lame basale est dense aux électrons et apparaît donc sombre en microscopie électronique en transmission. Elle est composée entre autres de Collagène de type IV.[réf. nécessaire] 
